--- a/5. HUNG WORKSPACE/WinFormTaskList/TaskList.xlsx
+++ b/5. HUNG WORKSPACE/WinFormTaskList/TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kratos\code\Capstone\robot-vision-system\5. HUNG WORKSPACE\WinFormTaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288FC5DB-0E08-47C5-A84C-3AF6C291D556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F4C8B-5351-4C25-9B34-A9BA5FC16C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Thiết kế giao diện tổng quan</t>
   </si>
   <si>
-    <t>Bug</t>
-  </si>
-  <si>
     <t>Vấn đề gặp phải</t>
   </si>
   <si>
@@ -118,6 +115,15 @@
   </si>
   <si>
     <t>Thiếu nhập file thuật toán xử lí ảnh</t>
+  </si>
+  <si>
+    <t>Xử lí</t>
+  </si>
+  <si>
+    <t>Đã xử lí</t>
+  </si>
+  <si>
+    <t>Chưa xử lí</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +149,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,9 +189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,9 +484,10 @@
     <col min="3" max="3" width="104.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,10 +501,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -520,7 +521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -534,7 +535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -544,14 +545,17 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -561,14 +565,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -578,11 +585,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -592,11 +599,11 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -606,11 +613,11 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -620,11 +627,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -634,11 +641,11 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -648,8 +655,8 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/5. HUNG WORKSPACE/WinFormTaskList/TaskList.xlsx
+++ b/5. HUNG WORKSPACE/WinFormTaskList/TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kratos\code\Capstone\robot-vision-system\5. HUNG WORKSPACE\WinFormTaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F4C8B-5351-4C25-9B34-A9BA5FC16C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72DE28-F689-450B-8449-9EAAB48609F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Đã xử lí</t>
-  </si>
-  <si>
-    <t>Chưa xử lí</t>
   </si>
 </sst>
 </file>
@@ -473,18 +470,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="61.6640625" customWidth="1"/>
-    <col min="3" max="3" width="104.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,8 +568,8 @@
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -585,8 +582,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -599,8 +596,8 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,8 +624,8 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
